--- a/verif_results/exact/datos_verificacion_sigmoid_1como2.xlsx
+++ b/verif_results/exact/datos_verificacion_sigmoid_1como2.xlsx
@@ -437,10 +437,10 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>5.649267911911011</v>
+        <v>6.299351930618286</v>
       </c>
       <c r="F1" t="n">
-        <v>8.755672039915419</v>
+        <v>0</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
@@ -449,49 +449,49 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J1" t="n">
+        <v>4.71612548828125</v>
+      </c>
+      <c r="K1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="O1" t="n">
+        <v>4.258305549621582</v>
+      </c>
+      <c r="P1" t="n">
+        <v>7.407791386685542</v>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>problem</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="J1" t="n">
-        <v>5.86180305480957</v>
-      </c>
-      <c r="K1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>mix</t>
-        </is>
-      </c>
-      <c r="O1" t="n">
-        <v>4.517788648605347</v>
-      </c>
-      <c r="P1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.738244533538818</v>
+        <v>4.464076519012451</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2.20374584197998</v>
+        <v>0.6156353950500488</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2.766063690185547</v>
+        <v>4.165231227874756</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.50988292694092</v>
+        <v>12.21682238578796</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>7.667165994644165</v>
+        <v>6.239528179168701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>15.41226172447205</v>
+        <v>7.095246076583862</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>146.507529258728</v>
+        <v>134.8238897323608</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>108.3534696102142</v>
+        <v>55.05354928970337</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>764.5471298694611</v>
+        <v>70.42892098426819</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -733,12 +733,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.02016711235046387</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.01948308944702148</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -747,7 +745,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -756,12 +754,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.02013850212097168</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.0193169116973877</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -770,7 +766,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -779,7 +775,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2.883618831634521</v>
+        <v>1.640718698501587</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -811,7 +807,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.448849439620972</v>
+        <v>3.930889129638672</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -832,7 +828,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3.800793886184692</v>
+        <v>2.113746166229248</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -853,7 +849,7 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>3.489770650863647</v>
+        <v>2.790117025375366</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -885,12 +881,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.03068828582763672</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.03051376342773438</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -899,7 +893,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -908,12 +902,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.03044342994689941</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.03023386001586914</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -922,7 +914,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -931,12 +923,10 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>0.03033995628356934</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.03031802177429199</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -945,7 +935,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -965,12 +955,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.03027558326721191</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.03000473976135254</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -979,7 +967,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -988,12 +976,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.03003501892089844</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.02993392944335938</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1002,7 +988,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1011,12 +997,10 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>0.03004813194274902</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.02981686592102051</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1025,7 +1009,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1029,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.72278904914856</v>
+        <v>1.670732498168945</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1066,7 +1050,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1.617653846740723</v>
+        <v>1.777227163314819</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1087,7 +1071,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>1.739040851593018</v>
+        <v>1.746407032012939</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1119,10 +1103,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>157.0555648803711</v>
+        <v>69.83157300949097</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000811314877653681</v>
+        <v>0.001384371946841668</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1140,10 +1124,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>6.490237951278687</v>
+        <v>148.8680598735809</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.00113355623152983</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1152,7 +1136,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1161,10 +1145,10 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>89.01386713981628</v>
+        <v>147.3793816566467</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0005558288135858139</v>
+        <v>0.0001567781867394824</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1193,10 +1177,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>901.0933496952057</v>
+        <v>3.978029727935791</v>
       </c>
       <c r="F11" t="n">
-        <v>1.436929099975847e-06</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1205,7 +1189,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1214,10 +1198,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>900.0006287097931</v>
+        <v>2.276217699050903</v>
       </c>
       <c r="K11" t="n">
-        <v>1.77452409225353e-06</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1226,7 +1210,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1235,10 +1219,10 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>900.0007381439209</v>
+        <v>2.488873720169067</v>
       </c>
       <c r="P11" t="n">
-        <v>5.530554467391694e-06</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1247,7 +1231,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -1267,10 +1251,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>900.0006279945374</v>
+        <v>770.9805965423584</v>
       </c>
       <c r="F12" t="n">
-        <v>8.877246219586421e-07</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1279,7 +1263,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1288,10 +1272,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>900.0006387233734</v>
+        <v>19.35248064994812</v>
       </c>
       <c r="K12" t="n">
-        <v>2.601049379463988e-06</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1300,7 +1284,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1309,10 +1293,10 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>107.4362909793854</v>
+        <v>189.4452774524689</v>
       </c>
       <c r="P12" t="n">
-        <v>1.334727438648027e-05</v>
+        <v>2.602501149614554e-06</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>

--- a/verif_results/exact/datos_verificacion_sigmoid_1como2.xlsx
+++ b/verif_results/exact/datos_verificacion_sigmoid_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,59 +437,68 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>6.299351930618286</v>
+        <v>6.144053220748901</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J1" t="n">
-        <v>4.71612548828125</v>
-      </c>
       <c r="K1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>4.805741310119629</v>
+      </c>
+      <c r="L1" t="n">
+        <v>341</v>
+      </c>
+      <c r="M1" t="n">
+        <v>0</v>
       </c>
       <c r="N1" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O1" t="n">
-        <v>4.258305549621582</v>
-      </c>
-      <c r="P1" t="n">
-        <v>7.407791386685542</v>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
+      <c r="Q1" t="n">
+        <v>4.317371129989624</v>
+      </c>
+      <c r="R1" t="n">
+        <v>152</v>
+      </c>
+      <c r="S1" t="n">
+        <v>115.6060011890814</v>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
         <is>
           <t>problem</t>
         </is>
@@ -511,59 +520,68 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.464076519012451</v>
+        <v>4.091441631317139</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+        <v>55</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>0.6156353950500488</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
+        <v>0.6030967235565186</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>4.165231227874756</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>3.883478403091431</v>
+      </c>
+      <c r="R2" t="n">
+        <v>170</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -585,59 +603,68 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.21682238578796</v>
+        <v>12.13301062583923</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>6930</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>6.239528179168701</v>
-      </c>
       <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>5.63013768196106</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2913</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>7.095246076583862</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>6.125105619430542</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3114</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -659,59 +686,68 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>134.8238897323608</v>
+        <v>137.3818216323853</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>54187</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>55.05354928970337</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>53.7286388874054</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18962</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>70.42892098426819</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>71.21482181549072</v>
+      </c>
+      <c r="R4" t="n">
+        <v>22920</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -733,59 +769,68 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.01948308944702148</v>
+        <v>0.01963376998901367</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>0.0193169116973877</v>
-      </c>
       <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>0.01917362213134766</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>1.640718698501587</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="Q5" t="n">
+        <v>1.639339923858643</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -807,59 +852,68 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.930889129638672</v>
+        <v>4.364128351211548</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
+        <v>213</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>2.113746166229248</v>
-      </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>2.219617605209351</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O6" t="n">
-        <v>2.790117025375366</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="n">
+        <v>2.800489664077759</v>
+      </c>
+      <c r="R6" t="n">
+        <v>112</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -881,59 +935,68 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.03051376342773438</v>
+        <v>0.03055691719055176</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>0.03023386001586914</v>
-      </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>0.0302276611328125</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>0.03031802177429199</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="Q7" t="n">
+        <v>0.03043341636657715</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -955,59 +1018,68 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.03000473976135254</v>
+        <v>0.03008484840393066</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>0.02993392944335938</v>
-      </c>
       <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>0.02989745140075684</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>0.02981686592102051</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="Q8" t="n">
+        <v>0.02994322776794434</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -1029,59 +1101,68 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.670732498168945</v>
+        <v>1.705073833465576</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>1.777227163314819</v>
-      </c>
       <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>1.826775550842285</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>1.746407032012939</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>1.797878503799438</v>
+      </c>
+      <c r="R9" t="n">
+        <v>11</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -1103,59 +1184,68 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>69.83157300949097</v>
+        <v>72.77856206893921</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001384371946841668</v>
-      </c>
-      <c r="G10" t="inlineStr">
+        <v>6655</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1382458110615647</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>problem</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>148.8680598735809</v>
-      </c>
       <c r="K10" t="n">
-        <v>0.00113355623152983</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>148.0535306930542</v>
+      </c>
+      <c r="L10" t="n">
+        <v>11402</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1132272736713338</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>problem</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>147.3793816566467</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.0001567781867394824</v>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="n">
+        <v>149.243880033493</v>
+      </c>
+      <c r="R10" t="n">
+        <v>29651</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.01567536111925548</v>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>problem</t>
         </is>
@@ -1177,135 +1267,70 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.978029727935791</v>
+        <v>4.719796895980835</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>198</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>2.276217699050903</v>
-      </c>
       <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>2.300193309783936</v>
+      </c>
+      <c r="L11" t="n">
+        <v>152</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>2.488873720169067</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>770.9805965423584</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>19.35248064994812</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>mix</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>189.4452774524689</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.602501149614554e-06</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>problem</t>
+      <c r="Q11" t="n">
+        <v>2.514350652694702</v>
+      </c>
+      <c r="R11" t="n">
+        <v>66</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>optimal</t>
         </is>
       </c>
     </row>

--- a/verif_results/exact/datos_verificacion_sigmoid_1como2.xlsx
+++ b/verif_results/exact/datos_verificacion_sigmoid_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,6 +1334,89 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>801.9461078643799</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23432</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>19.71824288368225</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>188.6117134094238</v>
+      </c>
+      <c r="R12" t="n">
+        <v>8966</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0002602494376619947</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/verif_results/exact/datos_verificacion_sigmoid_1como2.xlsx
+++ b/verif_results/exact/datos_verificacion_sigmoid_1como2.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>6.144053220748901</v>
+        <v>6.16852879524231</v>
       </c>
       <c r="F1" t="n">
         <v>650</v>
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>4.805741310119629</v>
+        <v>4.718067169189453</v>
       </c>
       <c r="L1" t="n">
         <v>341</v>
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="Q1" t="n">
-        <v>4.317371129989624</v>
+        <v>4.177584409713745</v>
       </c>
       <c r="R1" t="n">
-        <v>152</v>
+        <v>396</v>
       </c>
       <c r="S1" t="n">
-        <v>115.6060011890814</v>
+        <v>0</v>
       </c>
       <c r="T1" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.091441631317139</v>
+        <v>4.367933511734009</v>
       </c>
       <c r="F2" t="n">
         <v>55</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.6030967235565186</v>
+        <v>0.5663895606994629</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>3.883478403091431</v>
+        <v>0.6665656566619873</v>
       </c>
       <c r="R2" t="n">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.13301062583923</v>
+        <v>5.084186792373657</v>
       </c>
       <c r="F3" t="n">
-        <v>6930</v>
+        <v>2608</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>5.63013768196106</v>
+        <v>5.199208736419678</v>
       </c>
       <c r="L3" t="n">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>6.125105619430542</v>
+        <v>8.727470874786377</v>
       </c>
       <c r="R3" t="n">
-        <v>3114</v>
+        <v>4873</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>137.3818216323853</v>
+        <v>53.52738046646118</v>
       </c>
       <c r="F4" t="n">
-        <v>54187</v>
+        <v>18362</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>53.7286388874054</v>
+        <v>67.96623253822327</v>
       </c>
       <c r="L4" t="n">
-        <v>18962</v>
+        <v>26545</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>71.21482181549072</v>
+        <v>91.10350322723389</v>
       </c>
       <c r="R4" t="n">
-        <v>22920</v>
+        <v>33076</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.01963376998901367</v>
+        <v>0.01915621757507324</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.01917362213134766</v>
+        <v>0.01891970634460449</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1.639339923858643</v>
+        <v>1.580044269561768</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.364128351211548</v>
+        <v>4.373577833175659</v>
       </c>
       <c r="F6" t="n">
         <v>213</v>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>2.219617605209351</v>
+        <v>2.189143180847168</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>2.800489664077759</v>
+        <v>3.720953464508057</v>
       </c>
       <c r="R6" t="n">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.03055691719055176</v>
+        <v>0.03228235244750977</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.0302276611328125</v>
+        <v>0.03203368186950684</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>0.03043341636657715</v>
+        <v>0.03207159042358398</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.03008484840393066</v>
+        <v>0.03188586235046387</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.02989745140075684</v>
+        <v>0.03175663948059082</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>0.02994322776794434</v>
+        <v>0.03164362907409668</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.705073833465576</v>
+        <v>1.611758947372437</v>
       </c>
       <c r="F9" t="n">
         <v>11</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.826775550842285</v>
+        <v>1.62036657333374</v>
       </c>
       <c r="L9" t="n">
         <v>11</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1.797878503799438</v>
+        <v>1.662389516830444</v>
       </c>
       <c r="R9" t="n">
         <v>11</v>
@@ -1184,13 +1184,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>72.77856206893921</v>
+        <v>900.0005023479462</v>
       </c>
       <c r="F10" t="n">
-        <v>6655</v>
+        <v>656</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1382458110615647</v>
+        <v>0.1920247941459773</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1199,46 +1199,46 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>135.058375120163</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13842</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.02509395332257193</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>problem</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>148.0535306930542</v>
-      </c>
-      <c r="L10" t="n">
-        <v>11402</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.1132272736713338</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>mix</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>149.243880033493</v>
+        <v>183.3284559249878</v>
       </c>
       <c r="R10" t="n">
-        <v>29651</v>
+        <v>19826</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01567536111925548</v>
+        <v>0.0416451021213259</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4.719796895980835</v>
+        <v>4.382427453994751</v>
       </c>
       <c r="F11" t="n">
         <v>198</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>2.300193309783936</v>
+        <v>2.257312297821045</v>
       </c>
       <c r="L11" t="n">
         <v>152</v>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>2.514350652694702</v>
+        <v>2.736183881759644</v>
       </c>
       <c r="R11" t="n">
         <v>66</v>
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>801.9461078643799</v>
+        <v>900.0009095668793</v>
       </c>
       <c r="F12" t="n">
-        <v>23432</v>
+        <v>26279</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.0002602043622249256</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>timelimit</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>19.71824288368225</v>
+        <v>900.0006618499756</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>27305</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.000260249436374136</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>timelimit</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>188.6117134094238</v>
+        <v>900.0006682872772</v>
       </c>
       <c r="R12" t="n">
-        <v>8966</v>
+        <v>23949</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0002602494376619947</v>
+        <v>0.0002602752234460831</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>timelimit</t>
         </is>
       </c>
     </row>
